--- a/NEW HR/TIBAYAN, EUFEMIA OLIVAR.xlsx
+++ b/NEW HR/TIBAYAN, EUFEMIA OLIVAR.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-44REB32\Users\ASUS\Desktop\LEAVECARD\NEW HR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="64">
   <si>
     <t>PERIOD</t>
   </si>
@@ -229,6 +229,12 @@
   </si>
   <si>
     <t>2/6-10/2023</t>
+  </si>
+  <si>
+    <t>SL(22-0-0)</t>
+  </si>
+  <si>
+    <t>3/6-10,13-17,20-24,27-31, 4/3-5</t>
   </si>
 </sst>
 </file>
@@ -241,7 +247,7 @@
     <numFmt numFmtId="166" formatCode="###\-###\-###"/>
     <numFmt numFmtId="167" formatCode="dd"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -275,6 +281,13 @@
     <font>
       <b/>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -465,7 +478,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -607,9 +620,6 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -619,17 +629,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -639,6 +652,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -840,6 +856,12 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
         <bottom style="thin">
           <color rgb="FF000000"/>
         </bottom>
@@ -847,12 +869,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
         <bottom style="thin">
           <color rgb="FF000000"/>
         </bottom>
@@ -919,7 +935,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -962,7 +978,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1026,7 +1042,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1086,7 +1102,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1152,7 +1168,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1215,7 +1231,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1313,7 +1329,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1372,7 +1388,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1437,7 +1453,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1480,7 +1496,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1555,7 +1571,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1741,7 +1757,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1807,7 +1823,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1865,7 +1881,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1931,7 +1947,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1987,7 +2003,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2062,7 +2078,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2105,7 +2121,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2171,7 +2187,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2227,7 +2243,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2323,7 +2339,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K129" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="12" tableBorderDxfId="13" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K129" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -2675,7 +2691,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A65" activePane="bottomLeft"/>
       <selection activeCell="E9" sqref="E9"/>
-      <selection pane="bottomLeft" activeCell="H80" sqref="H80"/>
+      <selection pane="bottomLeft" activeCell="H81" sqref="H81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2697,60 +2713,60 @@
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="50"/>
+      <c r="C2" s="49"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="51"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="56"/>
-      <c r="G3" s="51"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="50"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="54"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="50"/>
+      <c r="C4" s="49"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="51"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -2776,18 +2792,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="49" t="s">
+      <c r="C7" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49" t="s">
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="49"/>
-      <c r="I7" s="49"/>
-      <c r="J7" s="49"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="52"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -2834,7 +2850,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>52.5</v>
+        <v>53.75</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2844,7 +2860,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</f>
-        <v>68.5</v>
+        <v>47.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -4280,20 +4296,30 @@
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A80" s="40"/>
-      <c r="B80" s="20"/>
-      <c r="C80" s="13"/>
+      <c r="A80" s="40">
+        <v>44986</v>
+      </c>
+      <c r="B80" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C80" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D80" s="39"/>
       <c r="E80" s="9"/>
       <c r="F80" s="20"/>
-      <c r="G80" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H80" s="39"/>
+      <c r="G80" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H80" s="39">
+        <v>22</v>
+      </c>
       <c r="I80" s="9"/>
       <c r="J80" s="11"/>
-      <c r="K80" s="20"/>
+      <c r="K80" s="60" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40"/>
@@ -5081,17 +5107,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
